--- a/Classification Results/Augmented Data/Full VPOP Classification/By Lab/Nelson 5 (43, 19, 11, 17, 31)/Ableson 3 (18, 29, 14, 48, 38)/NCDE_32nodes_Uniform0.05Virtual_Nelson(43, 19, 11, 17, 31)_Ableson(18, 29, 14, 48, 38)_100perPatient_batchsize200_2maxITER_StandardizeAll_smoothing0_dropout0_byLab.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Lab/Nelson 5 (43, 19, 11, 17, 31)/Ableson 3 (18, 29, 14, 48, 38)/NCDE_32nodes_Uniform0.05Virtual_Nelson(43, 19, 11, 17, 31)_Ableson(18, 29, 14, 48, 38)_100perPatient_batchsize200_2maxITER_StandardizeAll_smoothing0_dropout0_byLab.xlsx
@@ -456,10 +456,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.8079545007381593</v>
+        <v>0.8080601414048771</v>
       </c>
       <c r="E2">
-        <v>0.8079545007381593</v>
+        <v>0.8080601414048771</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,10 +470,10 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.001068380465716424</v>
+        <v>0.001066615700799473</v>
       </c>
       <c r="E3">
-        <v>0.001068380465716424</v>
+        <v>0.001066615700799473</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.9842169349168017</v>
+        <v>0.9841227757605735</v>
       </c>
       <c r="E4">
-        <v>0.9842169349168017</v>
+        <v>0.9841227757605735</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>0.001969961196750292</v>
+        <v>0.001973751605342619</v>
       </c>
       <c r="E5">
-        <v>0.001969961196750292</v>
+        <v>0.001973751605342619</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>0.2928116010175919</v>
+        <v>0.2928436514589686</v>
       </c>
       <c r="E6">
-        <v>0.2928116010175919</v>
+        <v>0.2928436514589686</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -526,10 +526,10 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0.9814506787245528</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>0.01854932127544717</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -540,10 +540,10 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0.9965587866809836</v>
+        <v>0.9615572033427451</v>
       </c>
       <c r="E8">
-        <v>0.003441213319016367</v>
+        <v>0.03844279665725492</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -554,10 +554,10 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0.9779392841490632</v>
+        <v>0.9999887454760186</v>
       </c>
       <c r="E9">
-        <v>0.02206071585093683</v>
+        <v>1.12545239814299E-05</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -565,13 +565,13 @@
         <v>14</v>
       </c>
       <c r="C10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>0.9938353069501767</v>
+        <v>0.3108077500029213</v>
       </c>
       <c r="E10">
-        <v>0.006164693049823255</v>
+        <v>0.6891922499970786</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -582,16 +582,16 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>0.9823997862846992</v>
+        <v>0.9246098342588457</v>
       </c>
       <c r="E11">
-        <v>0.01760021371530085</v>
+        <v>0.07539016574115431</v>
       </c>
       <c r="F11">
-        <v>0.6216758489608765</v>
+        <v>0.7429165244102478</v>
       </c>
       <c r="G11">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -605,10 +605,10 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.9632489283643274</v>
+        <v>0.9631034468299031</v>
       </c>
       <c r="E12">
-        <v>0.9632489283643274</v>
+        <v>0.9631034468299031</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -619,10 +619,10 @@
         <v>1</v>
       </c>
       <c r="D13">
-        <v>3.435640685207291E-05</v>
+        <v>3.452793200000132E-05</v>
       </c>
       <c r="E13">
-        <v>3.435640685207291E-05</v>
+        <v>3.452793200000132E-05</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -633,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.9989782952301577</v>
+        <v>0.9989885255933324</v>
       </c>
       <c r="E14">
-        <v>0.9989782952301577</v>
+        <v>0.9989885255933324</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -647,10 +647,10 @@
         <v>1</v>
       </c>
       <c r="D15">
-        <v>4.444783229829656E-05</v>
+        <v>4.432059862822761E-05</v>
       </c>
       <c r="E15">
-        <v>4.444783229829656E-05</v>
+        <v>4.432059862822761E-05</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -661,10 +661,10 @@
         <v>1</v>
       </c>
       <c r="D16">
-        <v>0.1117886983248078</v>
+        <v>0.112315230563792</v>
       </c>
       <c r="E16">
-        <v>0.1117886983248078</v>
+        <v>0.112315230563792</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -675,10 +675,10 @@
         <v>1</v>
       </c>
       <c r="D17">
-        <v>0.9988682463188778</v>
+        <v>1</v>
       </c>
       <c r="E17">
-        <v>0.001131753681122172</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -689,10 +689,10 @@
         <v>1</v>
       </c>
       <c r="D18">
-        <v>0.9999410082577849</v>
+        <v>0.8680781779308601</v>
       </c>
       <c r="E18">
-        <v>5.899174221513093E-05</v>
+        <v>0.1319218220691399</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -703,10 +703,10 @@
         <v>1</v>
       </c>
       <c r="D19">
-        <v>0.9983998161415091</v>
+        <v>0.999999999596801</v>
       </c>
       <c r="E19">
-        <v>0.001600183858490922</v>
+        <v>4.031990297193033E-10</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -717,10 +717,10 @@
         <v>1</v>
       </c>
       <c r="D20">
-        <v>0.9998266843641438</v>
+        <v>0.7462945916079222</v>
       </c>
       <c r="E20">
-        <v>0.0001733156358562082</v>
+        <v>0.2537054083920778</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -731,13 +731,13 @@
         <v>1</v>
       </c>
       <c r="D21">
-        <v>0.9990287602970406</v>
+        <v>0.9208224608853164</v>
       </c>
       <c r="E21">
-        <v>0.0009712397029594255</v>
+        <v>0.07917753911468361</v>
       </c>
       <c r="F21">
-        <v>1.031243324279785</v>
+        <v>1.083179831504822</v>
       </c>
       <c r="G21">
         <v>0.8</v>
